--- a/仙人/config_dev/LuckChance.xlsx
+++ b/仙人/config_dev/LuckChance.xlsx
@@ -15,31 +15,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">[常规:1]
-[春季:2]
-[夏季:3]
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
@@ -61,7 +36,7 @@
     <t>i001</t>
   </si>
   <si>
-    <t>常规</t>
+    <t>normal</t>
   </si>
   <si>
     <t>i003</t>
@@ -130,7 +105,7 @@
     <t>i009</t>
   </si>
   <si>
-    <t>春季</t>
+    <t>spring</t>
   </si>
   <si>
     <t>i010</t>
@@ -172,7 +147,7 @@
     <t>i016</t>
   </si>
   <si>
-    <t>夏季</t>
+    <t>summer</t>
   </si>
   <si>
     <t>i017</t>
@@ -184,11 +159,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +179,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -212,25 +239,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,106 +310,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -362,13 +325,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,13 +463,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,151 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +534,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,24 +593,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,41 +623,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,148 +636,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,7 +1139,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1495,7 +1458,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/仙人/config_dev/LuckChance.xlsx
+++ b/仙人/config_dev/LuckChance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>sID</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>i017</t>
+  </si>
+  <si>
+    <t>i018</t>
+  </si>
+  <si>
+    <t>luckday</t>
+  </si>
+  <si>
+    <t>[每日一缘]一名爱慕你很久的女弟子为你偷来了一本基础功法！</t>
+  </si>
+  <si>
+    <t>i019</t>
+  </si>
+  <si>
+    <t>[每日一缘]一名爱慕你很久的女弟子为你偷来了一本青元剑诀！</t>
+  </si>
+  <si>
+    <t>i020</t>
+  </si>
+  <si>
+    <t>[每日一缘]一名爱慕你很久的女弟子为你偷来了一本金翎功法！</t>
+  </si>
+  <si>
+    <t>i021</t>
+  </si>
+  <si>
+    <t>[每日一缘]一名爱慕你很久的女弟子为你偷来了一本无相水诀！</t>
   </si>
 </sst>
 </file>
@@ -159,8 +186,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -173,6 +200,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -180,7 +221,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +245,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,82 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -310,7 +315,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,61 +352,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,121 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +557,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,25 +601,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,17 +630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,8 +653,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,138 +678,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1136,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1452,6 +1482,74 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2">
+        <v>500</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/仙人/config_dev/LuckChance.xlsx
+++ b/仙人/config_dev/LuckChance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22583" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>在路上碰到参加门派海选的弟子，骗得一粒筑基丹。</t>
   </si>
   <si>
-    <t>i102</t>
+    <t>a002</t>
   </si>
   <si>
     <t>无意间闯入一间墓室，从中意外发现了一本青元剑诀！</t>
@@ -60,7 +60,7 @@
     <t>i004</t>
   </si>
   <si>
-    <t>i101</t>
+    <t>a001</t>
   </si>
   <si>
     <t>碰见一名修仙者，相聊甚欢，对方赠与你一本基础功法。</t>
@@ -69,7 +69,7 @@
     <t>i005</t>
   </si>
   <si>
-    <t>i106</t>
+    <t>ma001</t>
   </si>
   <si>
     <t>路上被一块石头绊倒，居然是一块下品灵石！</t>
@@ -78,7 +78,7 @@
     <t>i006</t>
   </si>
   <si>
-    <t>i107</t>
+    <t>ma002</t>
   </si>
   <si>
     <t>击杀一头妖兽后，发现其洞穴里有一块发光的中品灵石！</t>
@@ -87,7 +87,7 @@
     <t>i007</t>
   </si>
   <si>
-    <t>i108</t>
+    <t>ma003</t>
   </si>
   <si>
     <t>路上出手帮助了一位衣着华贵的人，没想到他竟然送你一块高品灵石！</t>
@@ -96,7 +96,7 @@
     <t>i008</t>
   </si>
   <si>
-    <t>i109</t>
+    <t>ma004</t>
   </si>
   <si>
     <t>天地异象突然在你附近发生，你过去一看，竟然是罕见的极品灵石，于是你取得后匆匆离去了。</t>
@@ -120,7 +120,7 @@
     <t>i013</t>
   </si>
   <si>
-    <t>i103</t>
+    <t>a003</t>
   </si>
   <si>
     <t>灭杀了当地一处作恶的帮派，在藏书库居然获得了一本金翎功法。</t>
@@ -129,7 +129,7 @@
     <t>i014</t>
   </si>
   <si>
-    <t>i104</t>
+    <t>a004</t>
   </si>
   <si>
     <t>于一处湖泊打坐时，发现一本遗留的无相水诀。</t>
@@ -138,7 +138,7 @@
     <t>i015</t>
   </si>
   <si>
-    <t>i105</t>
+    <t>a005</t>
   </si>
   <si>
     <t>突遇高人渡劫失败，于他坐化处，你发现了一本龙幽千影诀。</t>
@@ -185,8 +185,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -200,38 +200,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,41 +297,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,53 +320,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,25 +352,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,25 +424,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,121 +484,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,30 +557,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +591,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +613,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -658,6 +628,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,153 +666,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1169,7 +1166,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1478,77 +1475,77 @@
         <v>1000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>500</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>50</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
